--- a/Sprint 1 backlog.xlsx
+++ b/Sprint 1 backlog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jim\Desktop\Project-2-Game-Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anil\Documents\School Rotterdam\Informatica analyse\Periode 2\Project 2 - game developping through Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6324"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,10 +190,6 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -226,9 +222,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,103 +509,104 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="38.26953125" customWidth="1"/>
-    <col min="5" max="5" width="34.453125" customWidth="1"/>
-    <col min="6" max="6" width="44.81640625" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="44.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="39" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:6" ht="56.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>20</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+    <row r="4" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+    <row r="5" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="69.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
+    <row r="6" spans="1:6" ht="69.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="13"/>
+    <row r="7" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>